--- a/data/trans_bre/P16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,04%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 7,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 9,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 9,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; 37,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 109,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,04; 210,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,64; 473,77</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,4%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 5,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 2,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 2,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 1,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 159,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,31; 36,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,02; 41,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,65; 23,36</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,79%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 3,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 2,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,48; 96,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,73; 32,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,36; 60,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,34; 36,09</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 3,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 3,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 2,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,99; 50,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,27; 54,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,64; 74,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,93; 63,34</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,44%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 1,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 0,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 5,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,45; 36,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,05; 5,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,02; 71,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,49; 133,78</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; -2,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; -0,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 1,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 2,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,64; -22,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,23; -8,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,35; 20,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,86; 38,51</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 0,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,35; 11,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,06; 3,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 28,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 32,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>66,97%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 9,49</t>
+          <t>-2,78; 9,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 473,77</t>
+          <t>-42,39; 446,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-27,4%</t>
+          <t>-38,28%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 1,75</t>
+          <t>-9,89; 0,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 23,36</t>
+          <t>-67,14; 3,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>-10,46%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,08</t>
+          <t>-3,92; 2,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 36,09</t>
+          <t>-40,99; 36,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,84</t>
+          <t>-1,09; 5,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 63,34</t>
+          <t>-16,2; 210,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>53,99%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,82</t>
+          <t>0,47; 5,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 133,78</t>
+          <t>6,76; 128,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-48,07%</t>
+          <t>-15,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,18%</t>
+          <t>-31,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-35,37%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -2,84</t>
+          <t>-6,24; 2,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -0,93</t>
+          <t>-7,65; 1,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,68</t>
+          <t>-4,02; 3,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,45</t>
+          <t>-7,72; 0,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,64; -22,93</t>
+          <t>-48,77; 43,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,23; -8,53</t>
+          <t>-58,37; 18,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 20,88</t>
+          <t>-42,66; 66,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 38,51</t>
+          <t>-75,77; 9,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-11,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,19%</t>
+          <t>-71,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,92%</t>
+          <t>-40,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>-26,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>52,38%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-17,97; -6,55</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; -1,34</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 1,93</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 5,83</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-85,37; -49,89</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-62,49; -6,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-55,88; 21,49</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 137,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-7,19%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-11,92%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,73; 0,69</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-2,57; 0,27</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,78; 1,98</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 1,97</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 2,24</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-22,35; 11,24</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-25,06; 3,2</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-8,98; 28,57</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 32,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 41,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,12</t>
+          <t>-3,83; 2,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,6</t>
+          <t>-0,99; 7,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,35</t>
+          <t>1,64; 9,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 9,34</t>
+          <t>-2,32; 8,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 37,7</t>
+          <t>-44,84; 42,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 109,38</t>
+          <t>-9,87; 105,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,04; 210,04</t>
+          <t>20,41; 214,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 446,91</t>
+          <t>-37,23; 439,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,87</t>
+          <t>0,42; 5,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,94</t>
+          <t>-3,46; 3,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,89</t>
+          <t>-3,81; 2,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 0,36</t>
+          <t>-9,32; 0,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 159,73</t>
+          <t>4,96; 154,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 36,12</t>
+          <t>-31,36; 43,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 41,42</t>
+          <t>-35,48; 37,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 3,26</t>
+          <t>-66,13; 4,19</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,49</t>
+          <t>-1,54; 4,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,05</t>
+          <t>-3,92; 1,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,63</t>
+          <t>-2,29; 3,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,11</t>
+          <t>-3,88; 1,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 96,43</t>
+          <t>-21,06; 87,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 32,74</t>
+          <t>-40,63; 26,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 60,13</t>
+          <t>-26,17; 62,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 36,4</t>
+          <t>-40,55; 33,05</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,78</t>
+          <t>-3,79; 1,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,18</t>
+          <t>-3,68; 2,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,55</t>
+          <t>-2,39; 3,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,21</t>
+          <t>-1,0; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 50,62</t>
+          <t>-56,51; 52,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 54,64</t>
+          <t>-37,73; 47,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 74,28</t>
+          <t>-30,78; 69,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 210,42</t>
+          <t>-14,85; 241,18</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,75</t>
+          <t>-4,83; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,29</t>
+          <t>-6,95; 0,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 4,2</t>
+          <t>-3,0; 4,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,68</t>
+          <t>0,59; 5,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 36,33</t>
+          <t>-54,25; 43,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 5,49</t>
+          <t>-60,27; 11,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 71,93</t>
+          <t>-33,42; 67,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 128,65</t>
+          <t>4,52; 129,8</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 2,87</t>
+          <t>-6,08; 3,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 1,28</t>
+          <t>-7,99; 1,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,73</t>
+          <t>-4,05; 3,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,64</t>
+          <t>-7,75; 0,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 43,16</t>
+          <t>-48,39; 47,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 18,96</t>
+          <t>-60,96; 17,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,66; 66,6</t>
+          <t>-41,86; 64,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,77; 9,31</t>
+          <t>-76,13; 10,98</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -6,55</t>
+          <t>-17,8; -6,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -1,34</t>
+          <t>-12,86; -1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 1,93</t>
+          <t>-8,44; 1,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,83</t>
+          <t>0,05; 5,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-85,37; -49,89</t>
+          <t>-84,2; -45,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-62,49; -6,97</t>
+          <t>-62,73; -7,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 21,49</t>
+          <t>-55,39; 20,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 137,6</t>
+          <t>0,57; 146,26</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,69</t>
+          <t>-1,75; 0,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,27</t>
+          <t>-2,66; 0,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,98</t>
+          <t>-0,68; 1,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,24</t>
+          <t>-1,14; 2,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 11,24</t>
+          <t>-23,42; 11,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 3,2</t>
+          <t>-25,51; 3,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 28,57</t>
+          <t>-8,04; 28,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 41,87</t>
+          <t>-14,76; 40,2</t>
         </is>
       </c>
     </row>
